--- a/案例站.xlsx
+++ b/案例站.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15765" windowHeight="11010"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>题目序号</t>
   </si>
@@ -54,7 +53,7 @@
     <t>https://www.baidu.com/</t>
   </si>
   <si>
-    <t>password 与 ds</t>
+    <t xml:space="preserve">password 与 ds</t>
   </si>
   <si>
     <t>https://passport.yhd.com/passport/login_input.do</t>
@@ -66,7 +65,7 @@
     <t>https://clogin.ke.com/login?service=http%3A%2F%2Fm.ke.com%2Fmy%2Fchecklogin%3Fredirect%3Dhttps%253A%252F%252Fm.ke.com%252Fmy%252Findex&amp;type=2</t>
   </si>
   <si>
-    <t>登录 srcId</t>
+    <t xml:space="preserve">登录 srcId</t>
   </si>
   <si>
     <t>https://v.6.cn/channel/index.php?src=z9weij928</t>
@@ -75,7 +74,7 @@
     <t>https://pay.qq.com/</t>
   </si>
   <si>
-    <t>购买服务 encrypt_msg</t>
+    <t xml:space="preserve">购买服务 encrypt_msg</t>
   </si>
   <si>
     <t>www.lagou.com</t>
@@ -93,7 +92,7 @@
     <t>登录参数</t>
   </si>
   <si>
-    <t>uPwd 与 登录接口的password</t>
+    <t xml:space="preserve">uPwd 与 登录接口的password</t>
   </si>
   <si>
     <t>https://www.szse.cn/application/userCenter/accountinfo/index.html</t>
@@ -144,7 +143,7 @@
     <t>https://hotel.bestwehotel.com/NewLogin/?go=https%3A%2F%2Fhotel.bestwehotel.com</t>
   </si>
   <si>
-    <t>密码 black_box</t>
+    <t xml:space="preserve">密码 black_box</t>
   </si>
   <si>
     <t>www.to8to.com</t>
@@ -159,13 +158,13 @@
     <t>hdweb3.iguyi.com</t>
   </si>
   <si>
-    <t>刷新图片验证码 data</t>
+    <t xml:space="preserve">刷新图片验证码 data</t>
   </si>
   <si>
     <t>http://suo.im/5yGoXJ</t>
   </si>
   <si>
-    <t>发送短信 sign</t>
+    <t xml:space="preserve">发送短信 sign</t>
   </si>
   <si>
     <t>https://55249696.com/</t>
@@ -195,7 +194,7 @@
     <t>https://chushou.tv/</t>
   </si>
   <si>
-    <t>登录 device_stoken</t>
+    <t xml:space="preserve">登录 device_stoken</t>
   </si>
   <si>
     <t>https://www.97799f.com:9900</t>
@@ -243,37 +242,37 @@
     <t>https://aq.99.com/V3/NDUser_Login.htm</t>
   </si>
   <si>
-    <t>登录参数 txtPassword aws</t>
+    <t xml:space="preserve">登录参数 txtPassword aws</t>
   </si>
   <si>
     <t>https://sso.my089.com/sso/login</t>
   </si>
   <si>
-    <t>登录参数 app_key encryption</t>
+    <t xml:space="preserve">登录参数 app_key encryption</t>
   </si>
   <si>
     <t>https://passport.changhong.com/login.do?view=vip&amp;service=http://cn.changhong.com&amp;livemode=1</t>
   </si>
   <si>
-    <t>登录参数 密码 password</t>
+    <t xml:space="preserve">登录参数 密码 password</t>
   </si>
   <si>
     <t>http://www.xinshangmeng.com/xsm2/?Version=2019060900</t>
   </si>
   <si>
-    <t>登录参数 j_mcmm 等</t>
+    <t xml:space="preserve">登录参数 j_mcmm 等</t>
   </si>
   <si>
     <t>https://cas.gench.edu.cn/cas/login</t>
   </si>
   <si>
-    <t>登录参数 password execution</t>
+    <t xml:space="preserve">登录参数 password execution</t>
   </si>
   <si>
     <t>https://www.fcbox.com/pages/user/login.html</t>
   </si>
   <si>
-    <t>登录参数 password</t>
+    <t xml:space="preserve">登录参数 password</t>
   </si>
   <si>
     <t>https://www.battlenet.com.cn/login/zh/</t>
@@ -315,7 +314,7 @@
     <t>1级/六号</t>
   </si>
   <si>
-    <t>did/password (md5)</t>
+    <t xml:space="preserve">did/password (md5)</t>
   </si>
   <si>
     <t>https://class.imooc.com/</t>
@@ -324,7 +323,7 @@
     <t>登录过程参数</t>
   </si>
   <si>
-    <t>password(rsa) / browser_key（fp）</t>
+    <t xml:space="preserve">password(rsa) / browser_key（fp）</t>
   </si>
   <si>
     <t>https://www.yiban.cn/login?go=http%3A%2F%2Fwww.yiban.cn%2F</t>
@@ -348,6 +347,9 @@
     <t>登录密码</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>https://aerfaying.com/</t>
   </si>
   <si>
@@ -390,7 +392,7 @@
     <t>http://www.leadbank.com.cn/login/</t>
   </si>
   <si>
-    <t>获取验证码 data参数</t>
+    <t xml:space="preserve">获取验证码 data参数</t>
   </si>
   <si>
     <t>promise异步定位加密位置</t>
@@ -411,7 +413,7 @@
     <t>http://login.wsgjp.com.cn/</t>
   </si>
   <si>
-    <t>rsa, 有一个数组小坑</t>
+    <t xml:space="preserve">rsa, 有一个数组小坑</t>
   </si>
   <si>
     <t>https://bqcm0.cavip1.com/</t>
@@ -441,7 +443,7 @@
     <t>http://wwww-caipiao500.com/login</t>
   </si>
   <si>
-    <t>md5 + base64</t>
+    <t xml:space="preserve">md5 + base64</t>
   </si>
   <si>
     <t>https://mp.weixin.qq.com/cgi-bin/bizlogin?action=startlogin</t>
@@ -450,7 +452,7 @@
     <t>https://passport.kongzhong.com</t>
   </si>
   <si>
-    <t>获取dc 配合加密</t>
+    <t xml:space="preserve">获取dc 配合加密</t>
   </si>
   <si>
     <t>http://www.xinshangmeng.com</t>
@@ -477,7 +479,7 @@
     <t>1级/一号</t>
   </si>
   <si>
-    <t>password jsfuck</t>
+    <t xml:space="preserve">password jsfuck</t>
   </si>
   <si>
     <t>https://www.iqianjin.com/user/login</t>
@@ -486,7 +488,7 @@
     <t>http://www.sparctool.com/</t>
   </si>
   <si>
-    <t>下方表格内容 搜 ASPIRIN+CLOP</t>
+    <t xml:space="preserve">下方表格内容 搜 ASPIRIN+CLOP</t>
   </si>
   <si>
     <t>input骚操作</t>
@@ -513,7 +515,7 @@
     <t>http://zq.win007.com/cn/SubLeague/37.html</t>
   </si>
   <si>
-    <t>右侧 赛程资料统计下面 联赛，附加赛 附加赛决赛的 获取点击之后url跳转链接</t>
+    <t xml:space="preserve">右侧 赛程资料统计下面 联赛，附加赛 附加赛决赛的 获取点击之后url跳转链接</t>
   </si>
   <si>
     <t>https://www.cassmall.com/passport/login</t>
@@ -564,7 +566,7 @@
     <t>短视频解析</t>
   </si>
   <si>
-    <t>魔改md5，控制台：sign = g(参数link + 参数time)</t>
+    <t xml:space="preserve">魔改md5，控制台：sign = g(参数link + 参数time)</t>
   </si>
   <si>
     <t>https://www.doyo.cn/passport/login</t>
@@ -573,7 +575,7 @@
     <t>1级/6号</t>
   </si>
   <si>
-    <t>两次请求 sha1</t>
+    <t xml:space="preserve">两次请求 sha1</t>
   </si>
   <si>
     <t>http://www.byf.com/member/login.php</t>
@@ -585,7 +587,7 @@
     <t>采集数据密文解密</t>
   </si>
   <si>
-    <t>rsa + aes</t>
+    <t xml:space="preserve">rsa + aes</t>
   </si>
   <si>
     <t>https://bidding.sinopec.com/tpfront/xxgg/004001/</t>
@@ -600,7 +602,7 @@
     <t>http://minilogin.sgty.com/</t>
   </si>
   <si>
-    <t>登录中 pw 和sign</t>
+    <t xml:space="preserve">登录中 pw 和sign</t>
   </si>
   <si>
     <t>worker无法断点</t>
@@ -621,7 +623,7 @@
     <t>2级/三号</t>
   </si>
   <si>
-    <t>魔改md5 + 英数验证码</t>
+    <t xml:space="preserve">魔改md5 + 英数验证码</t>
   </si>
   <si>
     <t>https://v.douyin.com/WqMX9d/</t>
@@ -657,13 +659,13 @@
     <t>数据</t>
   </si>
   <si>
-    <t>webpack 实战</t>
+    <t xml:space="preserve">webpack 实战</t>
   </si>
   <si>
     <t>https://cd.meituan.com/meishi/c17/pn2/</t>
   </si>
   <si>
-    <t>list页 token</t>
+    <t xml:space="preserve">list页 token</t>
   </si>
   <si>
     <t>https://www.kanzhun.com/firm/interview/1nR-298~.html</t>
@@ -687,10 +689,10 @@
     <t>https://synconhub.coscoshipping.com/</t>
   </si>
   <si>
-    <t>登录接口 password， headers中的 ECTIMGCAPTCHA 参数</t>
-  </si>
-  <si>
-    <t>多导包的webpack 请求规律 ECTIMGCAPTCHA 生成方案暂未发现</t>
+    <t xml:space="preserve">登录接口 password， headers中的 ECTIMGCAPTCHA 参数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多导包的webpack 请求规律 ECTIMGCAPTCHA 生成方案暂未发现</t>
   </si>
   <si>
     <t>http://gyzy.guizhoucourt.cn/</t>
@@ -726,7 +728,7 @@
     <t>https://www.douyu.com</t>
   </si>
   <si>
-    <t>密码md5 + 极验点选</t>
+    <t xml:space="preserve">密码md5 + 极验点选</t>
   </si>
   <si>
     <t>http://upass.10jqka.com.cn/register</t>
@@ -813,13 +815,13 @@
     <t>https://www.zimchina.com/tools/track-a-shipment</t>
   </si>
   <si>
-    <t>搜索 GSLU2044513 出结果</t>
+    <t xml:space="preserve">搜索 GSLU2044513 出结果</t>
   </si>
   <si>
     <t>待定/二号</t>
   </si>
   <si>
-    <t>tls指纹检测和请求头顺序。应该是 akamai</t>
+    <t xml:space="preserve">tls指纹检测和请求头顺序。应该是 akamai</t>
   </si>
   <si>
     <t>需要先注册个账号，尝试模拟登陆过程</t>
@@ -849,223 +851,179 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11.000000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11.000000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="8"/>
-      <color rgb="FF1155CC"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11.000000"/>
+      <color indexed="4"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="8"/>
-      <color rgb="FF0563C1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11.000000"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18.000000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11.000000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15.000000"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13.000000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color indexed="65"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.000000"/>
+      <color indexed="65"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="8.000000"/>
+      <color indexed="65"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="12.000000"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.000000"/>
+      <color rgb="FF1155CC"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.000000"/>
+      <color rgb="FF0563C1"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.000000"/>
+      <color rgb="FF0563C1"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.000000"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <name val="微软雅黑"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1077,276 +1035,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4285F4"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.79998168889431398"/>
+        <bgColor theme="6" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810496"/>
+        <bgColor theme="6" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241899"/>
+        <bgColor theme="6" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241899"/>
+        <bgColor theme="5" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241899"/>
+        <bgColor theme="4" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241899"/>
+        <bgColor theme="7" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431398"/>
+        <bgColor theme="9" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431398"/>
+        <bgColor theme="8" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431398"/>
+        <bgColor theme="4" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.59999389629810496"/>
+        <bgColor theme="4" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.79998168889431398"/>
+        <bgColor theme="5" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.59999389629810496"/>
+        <bgColor theme="5" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431398"/>
+        <bgColor theme="7" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810496"/>
+        <bgColor theme="7" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.59999389629810496"/>
+        <bgColor theme="8" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.39997558519241899"/>
+        <bgColor theme="8" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.59999389629810496"/>
+        <bgColor theme="9" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.39997558519241899"/>
+        <bgColor theme="9" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF4285F4"/>
+        <bgColor rgb="FF4285F4"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="15">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -1361,7 +1247,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -1376,16 +1262,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -1400,27 +1295,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="double">
@@ -1435,217 +1310,300 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="19" fillId="33" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="33" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="33" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="21" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="22" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="21" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="24" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="26" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="21" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="21" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="21" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="21" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1700,6 +1658,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1709,8 +1668,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1755,13 +1714,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1784,19 +1743,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1819,7 +1777,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1990,28 +1947,240 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C49" zoomScale="100" workbookViewId="0">
+      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="32.875" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="57.625" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="50"/>
+    <col customWidth="1" min="3" max="3" width="29.5"/>
+    <col customWidth="1" min="4" max="4" width="32.875"/>
+    <col customWidth="1" min="5" max="5" width="40.875"/>
+    <col customWidth="1" min="6" max="6" width="57.625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:6">
+    <row r="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:6">
+    <row r="2" ht="17.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2049,7 +2218,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" ht="17.25" spans="1:6">
+    <row r="3" ht="17.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2065,7 +2234,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:6">
+    <row r="4" ht="17.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2081,7 +2250,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:6">
+    <row r="5" ht="17.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2097,7 +2266,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:6">
+    <row r="6" ht="17.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2113,7 +2282,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:6">
+    <row r="7" ht="17.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2129,7 +2298,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:6">
+    <row r="8" ht="17.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2145,7 +2314,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:6">
+    <row r="9" ht="17.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2161,7 +2330,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:6">
+    <row r="10" ht="17.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2177,7 +2346,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:6">
+    <row r="11" ht="17.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2195,7 +2364,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:6">
+    <row r="12" ht="17.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2211,7 +2380,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:6">
+    <row r="13" ht="17.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2227,7 +2396,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:6">
+    <row r="14" ht="17.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2243,7 +2412,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:6">
+    <row r="15" ht="17.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2259,7 +2428,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:6">
+    <row r="16" ht="17.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2275,7 +2444,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:6">
+    <row r="17" ht="17.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2291,7 +2460,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:6">
+    <row r="18" ht="17.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2307,7 +2476,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:6">
+    <row r="19" ht="17.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2323,7 +2492,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:6">
+    <row r="20" ht="17.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2339,7 +2508,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:6">
+    <row r="21" ht="17.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2355,7 +2524,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:6">
+    <row r="22" ht="17.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2371,7 +2540,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" ht="17.25" spans="1:6">
+    <row r="23" ht="17.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2387,7 +2556,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" ht="17.25" spans="1:6">
+    <row r="24" ht="17.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2403,7 +2572,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" ht="17.25" spans="1:6">
+    <row r="25" ht="17.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2419,7 +2588,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" ht="17.25" spans="1:6">
+    <row r="26" ht="17.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2435,7 +2604,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" ht="17.25" spans="1:6">
+    <row r="27" ht="17.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2451,7 +2620,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" ht="17.25" spans="1:6">
+    <row r="28" ht="17.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2467,7 +2636,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" ht="17.25" spans="1:6">
+    <row r="29" ht="17.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2485,7 +2654,7 @@
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" ht="17.25" spans="1:6">
+    <row r="30" ht="17.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2501,7 +2670,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" ht="17.25" spans="1:6">
+    <row r="31" ht="17.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2517,7 +2686,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" ht="17.25" spans="1:6">
+    <row r="32" ht="17.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2533,7 +2702,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" ht="17.25" spans="1:6">
+    <row r="33" ht="17.25">
       <c r="A33" s="4">
         <v>33</v>
       </c>
@@ -2549,7 +2718,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="17.25" spans="1:6">
+    <row r="34" ht="17.25">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -2565,7 +2734,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" ht="17.25" spans="1:6">
+    <row r="35" ht="17.25">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -2581,7 +2750,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" ht="17.25" spans="1:6">
+    <row r="36" ht="17.25">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -2597,7 +2766,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" ht="17.25" spans="1:6">
+    <row r="37" ht="17.25">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -2613,7 +2782,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" ht="17.25" spans="1:6">
+    <row r="38" ht="17.25">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -2629,7 +2798,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" ht="17.25" spans="1:6">
+    <row r="39" ht="17.25">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -2645,7 +2814,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" ht="17.25" spans="1:6">
+    <row r="40" ht="17.25">
       <c r="A40" s="4">
         <v>41</v>
       </c>
@@ -2661,7 +2830,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" ht="17.25" spans="1:6">
+    <row r="41" ht="17.25">
       <c r="A41" s="4">
         <v>42</v>
       </c>
@@ -2677,7 +2846,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" ht="17.25" spans="1:6">
+    <row r="42" ht="17.25">
       <c r="A42" s="4">
         <v>44</v>
       </c>
@@ -2693,7 +2862,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" ht="17.25" spans="1:6">
+    <row r="43" ht="17.25">
       <c r="A43" s="4">
         <v>45</v>
       </c>
@@ -2709,7 +2878,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" ht="17.25" spans="1:6">
+    <row r="44" ht="17.25">
       <c r="A44" s="4">
         <v>46</v>
       </c>
@@ -2725,7 +2894,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" ht="17.25" spans="1:6">
+    <row r="45" ht="17.25">
       <c r="A45" s="4">
         <v>50</v>
       </c>
@@ -2741,7 +2910,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" ht="17.25" spans="1:6">
+    <row r="46" ht="17.25">
       <c r="A46" s="4">
         <v>51</v>
       </c>
@@ -2757,7 +2926,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" ht="17.25" spans="1:6">
+    <row r="47" ht="17.25">
       <c r="A47" s="4">
         <v>53</v>
       </c>
@@ -2773,7 +2942,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" ht="17.25" spans="1:6">
+    <row r="48" ht="17.25">
       <c r="A48" s="4">
         <v>54</v>
       </c>
@@ -2789,7 +2958,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" ht="17.25" spans="1:6">
+    <row r="49" ht="17.25">
       <c r="A49" s="4">
         <v>55</v>
       </c>
@@ -2805,7 +2974,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" ht="17.25" spans="1:6">
+    <row r="50" ht="17.25">
       <c r="A50" s="4">
         <v>56</v>
       </c>
@@ -2821,7 +2990,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" ht="17.25" spans="1:6">
+    <row r="51" ht="17.25">
       <c r="A51" s="4">
         <v>57</v>
       </c>
@@ -2839,7 +3008,7 @@
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" ht="17.25" spans="1:6">
+    <row r="52" ht="17.25">
       <c r="A52" s="4">
         <v>58</v>
       </c>
@@ -2857,7 +3026,7 @@
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" ht="17.25" spans="1:6">
+    <row r="53" ht="17.25">
       <c r="A53" s="4">
         <v>59</v>
       </c>
@@ -2875,7 +3044,7 @@
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" ht="17.25" spans="1:6">
+    <row r="54" ht="17.25">
       <c r="A54" s="4">
         <v>60</v>
       </c>
@@ -2893,7 +3062,7 @@
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" ht="17.25" spans="1:6">
+    <row r="55" ht="17.25">
       <c r="A55" s="4">
         <v>61</v>
       </c>
@@ -2911,7 +3080,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" ht="17.25" spans="1:6">
+    <row r="56" ht="17.25">
       <c r="A56" s="4">
         <v>62</v>
       </c>
@@ -2929,7 +3098,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" ht="17.25" spans="1:6">
+    <row r="57" ht="17.25">
       <c r="A57" s="4">
         <v>63</v>
       </c>
@@ -2945,50 +3114,54 @@
       <c r="E57" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" ht="17.25" spans="1:6">
+      <c r="F57" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" ht="17.25">
       <c r="A58" s="4">
         <v>64</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" ht="17.25" spans="1:6">
+        <v>113</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" ht="17.25">
       <c r="A59" s="4">
         <v>65</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" ht="17.25" spans="1:6">
+    <row r="60" ht="17.25">
       <c r="A60" s="4">
         <v>66</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>109</v>
@@ -3001,87 +3174,87 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" ht="17.25" spans="1:6">
+    <row r="61" ht="17.25">
       <c r="A61" s="4">
         <v>67</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" ht="17.25" spans="1:6">
+    <row r="62" ht="17.25">
       <c r="A62" s="4">
         <v>68</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" ht="17.25" spans="1:6">
+    <row r="63" ht="17.25">
       <c r="A63" s="4">
         <v>69</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" ht="17.25" spans="1:6">
+    <row r="64" ht="17.25">
       <c r="A64" s="4">
         <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" ht="17.25" spans="1:6">
+    <row r="65" ht="17.25">
       <c r="A65" s="4">
         <v>71</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>106</v>
@@ -3091,12 +3264,12 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" ht="17.25" spans="1:6">
+    <row r="66" ht="17.25">
       <c r="A66" s="4">
         <v>72</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>109</v>
@@ -3105,52 +3278,52 @@
         <v>106</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" ht="17.25" spans="1:6">
+    <row r="67" ht="17.25">
       <c r="A67" s="4">
         <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" ht="17.25" spans="1:6">
+    <row r="68" ht="17.25">
       <c r="A68" s="4">
         <v>74</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" ht="17.25" spans="1:6">
+    <row r="69" ht="17.25">
       <c r="A69" s="4">
         <v>75</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>21</v>
@@ -3159,16 +3332,16 @@
         <v>106</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" ht="17.25" spans="1:6">
+    <row r="70" ht="17.25">
       <c r="A70" s="4">
         <v>76</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>109</v>
@@ -3177,16 +3350,16 @@
         <v>106</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" ht="17.25" spans="1:6">
+    <row r="71" ht="17.25">
       <c r="A71" s="4">
         <v>77</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>7</v>
@@ -3195,16 +3368,16 @@
         <v>106</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" ht="17.25" spans="1:6">
+    <row r="72" ht="17.25">
       <c r="A72" s="4">
         <v>78</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>7</v>
@@ -3213,16 +3386,16 @@
         <v>106</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" ht="17.25" spans="1:6">
+    <row r="73" ht="17.25">
       <c r="A73" s="4">
         <v>79</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>21</v>
@@ -3231,16 +3404,16 @@
         <v>106</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" ht="17.25" spans="1:6">
+    <row r="74" ht="17.25">
       <c r="A74" s="4">
         <v>80</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>21</v>
@@ -3249,19 +3422,19 @@
         <v>106</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" ht="17.25" spans="1:6">
+    <row r="75" ht="17.25">
       <c r="A75" s="4">
         <v>81</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>106</v>
@@ -3269,758 +3442,758 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" ht="17.25" spans="1:6">
+    <row r="76" ht="17.25">
       <c r="A76" s="4">
         <v>82</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" ht="17.25" spans="1:6">
+    <row r="77" ht="17.25">
       <c r="A77" s="4">
         <v>83</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" ht="17.25" spans="1:6">
+    <row r="78" ht="17.25">
       <c r="A78" s="4">
         <v>84</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" ht="17.25" spans="1:6">
+    <row r="79" ht="17.25">
       <c r="A79" s="4">
         <v>85</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" ht="17.25" spans="1:6">
+    <row r="80" ht="17.25">
       <c r="A80" s="4">
         <v>86</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" ht="17.25" spans="1:6">
+    <row r="81" ht="17.25">
       <c r="A81" s="4">
         <v>87</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" ht="17.25" spans="1:6">
+    <row r="82" ht="17.25">
       <c r="A82" s="4">
         <v>89</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" ht="17.25" spans="1:6">
+    <row r="83" ht="17.25">
       <c r="A83" s="4">
         <v>90</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" ht="17.25" spans="1:6">
+    <row r="84" ht="17.25">
       <c r="A84" s="4">
         <v>91</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" ht="17.25" spans="1:6">
+    <row r="85" ht="17.25">
       <c r="A85" s="4">
         <v>92</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" ht="17.25" spans="1:6">
+    <row r="86" ht="17.25">
       <c r="A86" s="4">
         <v>93</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" ht="17.25" spans="1:6">
+    <row r="87" ht="17.25">
       <c r="A87" s="4">
         <v>94</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" ht="17.25" spans="1:6">
+    <row r="88" ht="17.25">
       <c r="A88" s="4">
         <v>95</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" ht="17.25" spans="1:6">
+    <row r="89" ht="17.25">
       <c r="A89" s="4">
         <v>96</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" ht="17.25" spans="1:6">
+    <row r="90" ht="17.25">
       <c r="A90" s="4">
         <v>97</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" ht="17.25" spans="1:6">
+    <row r="91" ht="17.25">
       <c r="A91" s="4">
         <v>98</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" ht="17.25" spans="1:6">
+    <row r="92" ht="17.25">
       <c r="A92" s="4">
         <v>99</v>
       </c>
       <c r="B92" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="E92" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" ht="17.25" spans="1:6">
+    <row r="93" ht="17.25">
       <c r="A93" s="4">
         <v>100</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" ht="17.25" spans="1:6">
+    <row r="94" ht="17.25">
       <c r="A94" s="4">
         <v>101</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" ht="17.25" spans="1:6">
+    <row r="95" ht="17.25">
       <c r="A95" s="4">
         <v>102</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" ht="17.25" spans="1:6">
+    <row r="96" ht="17.25">
       <c r="A96" s="4">
         <v>103</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" ht="17.25" spans="1:6">
+    <row r="97" ht="17.25">
       <c r="A97" s="4">
         <v>104</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" ht="17.25" spans="1:6">
+    <row r="98" ht="17.25">
       <c r="A98" s="4">
         <v>105</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" ht="17.25" spans="1:6">
+    <row r="99" ht="17.25">
       <c r="A99" s="4">
         <v>106</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" ht="17.25" spans="1:6">
+    <row r="100" ht="17.25">
       <c r="A100" s="4">
         <v>107</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" ht="17.25" spans="1:6">
+    <row r="101" ht="17.25">
       <c r="A101" s="4">
         <v>108</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" ht="17.25" spans="1:6">
+    <row r="102" ht="17.25">
       <c r="A102" s="4">
         <v>109</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" ht="17.25" spans="1:6">
+    <row r="103" ht="17.25">
       <c r="A103" s="4">
         <v>110</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" ht="17.25" spans="1:6">
+    <row r="104" ht="17.25">
       <c r="A104" s="4">
         <v>111</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" ht="17.25" spans="1:6">
+    <row r="105" ht="17.25">
       <c r="A105" s="4">
         <v>112</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" ht="17.25" spans="1:6">
+    <row r="106" ht="17.25">
       <c r="A106" s="4">
         <v>113</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" ht="17.25" spans="1:6">
+    <row r="107" ht="17.25">
       <c r="A107" s="4">
         <v>114</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" ht="17.25" spans="1:6">
+    <row r="108" ht="17.25">
       <c r="A108" s="4">
         <v>115</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" ht="17.25" spans="1:6">
+    <row r="109" ht="17.25">
       <c r="A109" s="4">
         <v>116</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" ht="17.25" spans="1:6">
+    <row r="110" ht="17.25">
       <c r="A110" s="4">
         <v>117</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" ht="17.25" spans="1:6">
+    <row r="111" ht="17.25">
       <c r="A111" s="4">
         <v>118</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" ht="17.25" spans="1:6">
+    <row r="112" ht="17.25">
       <c r="A112" s="4">
         <v>119</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" ht="17.25" spans="1:6">
+    <row r="113" ht="17.25">
       <c r="A113" s="4">
         <v>120</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" ht="17.25" spans="1:6">
+    <row r="114" ht="17.25">
       <c r="A114" s="4">
         <v>121</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" ht="17.25" spans="1:6">
+    <row r="115" ht="17.25">
       <c r="A115" s="4">
         <v>122</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" ht="17.25" spans="1:6">
+    <row r="116" ht="17.25">
       <c r="A116" s="11">
         <v>123</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="117" ht="17.25" spans="1:6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" ht="17.25">
       <c r="A117" s="14">
         <v>124</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F117" s="16"/>
     </row>
-    <row r="118" ht="17.25" spans="1:6">
+    <row r="118" ht="17.25">
       <c r="A118" s="4">
         <v>125</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>57</v>
@@ -4029,179 +4202,186 @@
       <c r="E118" s="6"/>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" ht="17.25" spans="1:6">
+    <row r="119" ht="17.25">
       <c r="A119" s="4">
         <v>126</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F119" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://m.ctyun.cn/wap/main/auth/login?redirect=%2Fmy" tooltip="https://m.ctyun.cn/wap/main/auth/login?redirect=/my"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://cn.fawmx.com/home/register" tooltip="https://cn.fawmx.com/home/register"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.baidu.com/" tooltip="https://www.baidu.com/"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://passport.yhd.com/passport/login_input.do" tooltip="https://passport.yhd.com/passport/login_input.do"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://clogin.ke.com/login?service=http%3A%2F%2Fm.ke.com%2Fmy%2Fchecklogin%3Fredirect%3Dhttps%253A%252F%252Fm.ke.com%252Fmy%252Findex&amp;type=2" tooltip="https://clogin.ke.com/login?service=http://m.ke.com/my/checklogin?redirect=https%3A%2F%2Fm.ke.com%2Fmy%2Findex&amp;type=2"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://v.6.cn/channel/index.php?src=z9weij928" tooltip="https://v.6.cn/channel/index.php?src=z9weij928"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://pay.qq.com/" tooltip="https://pay.qq.com/"/>
-    <hyperlink ref="B9" r:id="rId8" display="www.lagou.com" tooltip="http://www.lagou.com/"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://u.caixin.com/user/login.html" tooltip="http://u.caixin.com/user/login.html"/>
-    <hyperlink ref="B11" r:id="rId10" display="https://login.189.cn/web/login" tooltip="https://login.189.cn/web/login"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://www.szse.cn/application/userCenter/accountinfo/index.html" tooltip="https://www.szse.cn/application/userCenter/accountinfo/index.html"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://tianaw.95505.cn/tacpc/#/login" tooltip="https://tianaw.95505.cn/tacpc/"/>
-    <hyperlink ref="B14" r:id="rId13" display="www.iqiyi.com" tooltip="http://www.iqiyi.com/"/>
-    <hyperlink ref="B15" r:id="rId14" display="https://86663u.com/login" tooltip="https://86663u.com/login"/>
-    <hyperlink ref="B16" r:id="rId15" display="http://jx409.com" tooltip="http://jx409.com/"/>
-    <hyperlink ref="B17" r:id="rId16" display="https://02348811.com/" tooltip="https://02348811.com/"/>
-    <hyperlink ref="B18" r:id="rId17" display="https://csj812.com/login" tooltip="https://csj812.com/login"/>
-    <hyperlink ref="B19" r:id="rId18" display="https://mail.qq.com/" tooltip="https://mail.qq.com/"/>
-    <hyperlink ref="B20" r:id="rId19" display="http://www.bijiaqi.com/" tooltip="http://www.bijiaqi.com/"/>
-    <hyperlink ref="B21" r:id="rId20" display="https://oauth.d.cn/auth/goLogin.html" tooltip="https://oauth.d.cn/auth/goLogin.html"/>
-    <hyperlink ref="B22" r:id="rId21" display="https://hotel.bestwehotel.com/NewLogin/?go=https%3A%2F%2Fhotel.bestwehotel.com" tooltip="https://hotel.bestwehotel.com/NewLogin/?go=https://hotel.bestwehotel.com"/>
-    <hyperlink ref="B23" r:id="rId22" display="www.to8to.com" tooltip="http://www.to8to.com/"/>
-    <hyperlink ref="B24" r:id="rId23" display="https://beijing.tuitui99.com/denglu.html" tooltip="https://beijing.tuitui99.com/denglu.html"/>
-    <hyperlink ref="B25" r:id="rId24" display="http://j.esf.leju.com/ucenter/login?curcity=gz" tooltip="http://j.esf.leju.com/ucenter/login?curcity=gz"/>
-    <hyperlink ref="B26" r:id="rId25" display="hdweb3.iguyi.com" tooltip="http://hdweb3.iguyi.com/"/>
-    <hyperlink ref="B27" r:id="rId26" display="http://suo.im/5yGoXJ" tooltip="http://suo.im/5yGoXJ"/>
-    <hyperlink ref="B28" r:id="rId27" display="https://55249696.com/" tooltip="https://55249696.com/"/>
-    <hyperlink ref="B29" r:id="rId28" display="x-cbt.com" tooltip="http://x-cbt.com/"/>
-    <hyperlink ref="B30" r:id="rId29" display="https://www.2980.com/login?callback=/" tooltip="https://www.2980.com/login?callback=/"/>
-    <hyperlink ref="B31" r:id="rId30" display="http://www.yijianjiexi.com/ajax/analyze.php" tooltip="http://www.yijianjiexi.com/ajax/analyze.php"/>
-    <hyperlink ref="B32" r:id="rId31" display="https://chushou.tv/" tooltip="https://chushou.tv/"/>
-    <hyperlink ref="B33" r:id="rId32" display="https://www.97799f.com:9900" tooltip="https://www.97799f.com:9900/"/>
-    <hyperlink ref="B34" r:id="rId33" display="https://nid.naver.com/nidlogin.login" tooltip="https://nid.naver.com/nidlogin.login"/>
-    <hyperlink ref="B35" r:id="rId34" display="https://mail.wo.cn/register" tooltip="https://mail.wo.cn/register"/>
-    <hyperlink ref="B36" r:id="rId35" display="http://www.youshiyun.com.cn/#/login/index" tooltip="http://www.youshiyun.com.cn/"/>
-    <hyperlink ref="B37" r:id="rId36" display="https://www.oschina.net/home/login" tooltip="https://www.oschina.net/home/login"/>
-    <hyperlink ref="B38" r:id="rId37" display="https://passport.kongzhong.com/login" tooltip="https://passport.kongzhong.com/login"/>
-    <hyperlink ref="B39" r:id="rId38" display="https://www.zhenai.com/n/login" tooltip="https://www.zhenai.com/n/login"/>
-    <hyperlink ref="B40" r:id="rId39" display="http://www.tiancity.com/homepage/" tooltip="http://www.tiancity.com/homepage/"/>
-    <hyperlink ref="B41" r:id="rId40" display="http://www.lkgame.com/login.html" tooltip="http://www.lkgame.com/login.html"/>
-    <hyperlink ref="B42" r:id="rId41" display="http://www.ctzrnet.com/user/to_login" tooltip="http://www.ctzrnet.com/user/to_login"/>
-    <hyperlink ref="B43" r:id="rId42" display="https://aq.99.com/V3/NDUser_Login.htm" tooltip="https://aq.99.com/V3/NDUser_Login.htm"/>
-    <hyperlink ref="B44" r:id="rId43" display="https://sso.my089.com/sso/login" tooltip="https://sso.my089.com/sso/login"/>
-    <hyperlink ref="B45" r:id="rId44" display="https://passport.changhong.com/login.do?view=vip&amp;service=http://cn.changhong.com&amp;livemode=1" tooltip="https://passport.changhong.com/login.do?view=vip&amp;service=http://cn.changhong.com&amp;livemode=1"/>
-    <hyperlink ref="B46" r:id="rId45" display="http://www.xinshangmeng.com/xsm2/?Version=2019060900" tooltip="http://www.xinshangmeng.com/xsm2/?Version=2019060900"/>
-    <hyperlink ref="B47" r:id="rId46" display="https://cas.gench.edu.cn/cas/login" tooltip="https://cas.gench.edu.cn/cas/login"/>
-    <hyperlink ref="B48" r:id="rId47" display="https://www.fcbox.com/pages/user/login.html" tooltip="https://www.fcbox.com/pages/user/login.html"/>
-    <hyperlink ref="B49" r:id="rId48" display="https://www.battlenet.com.cn/login/zh/" tooltip="https://www.battlenet.com.cn/login/zh/"/>
-    <hyperlink ref="B50" r:id="rId49" display="https://www.mytokencap.com/" tooltip="https://www.mytokencap.com/"/>
-    <hyperlink ref="B51" r:id="rId50" display="music.163.com" tooltip="http://music.163.com/"/>
-    <hyperlink ref="B52" r:id="rId51" display="http://ggzy.zwfwb.tj.gov.cn/jyxx/index.jhtml" tooltip="http://ggzy.zwfwb.tj.gov.cn/jyxx/index.jhtml"/>
-    <hyperlink ref="B53" r:id="rId52" display="http://8553j89.com/cn/register" tooltip="http://8553j89.com/cn/register"/>
-    <hyperlink ref="B54" r:id="rId53" display="https://class.imooc.com/" tooltip="https://class.imooc.com/"/>
-    <hyperlink ref="B55" r:id="rId54" display="https://www.yiban.cn/login?go=http%3A%2F%2Fwww.yiban.cn%2F" tooltip="https://www.yiban.cn/login?go=http://www.yiban.cn/"/>
-    <hyperlink ref="B56" r:id="rId55" display="https://www.cls.cn/telegraph" tooltip="https://www.cls.cn/telegraph"/>
-    <hyperlink ref="B57" r:id="rId56" display="http://tms.newchinalife.com/ex/app/login/login.jsp" tooltip="http://tms.newchinalife.com/ex/app/login/login.jsp"/>
-    <hyperlink ref="B58" r:id="rId57" display="https://aerfaying.com/" tooltip="https://aerfaying.com/"/>
-    <hyperlink ref="B59" r:id="rId58" display="http://jzsc.mohurd.gov.cn/data/company" tooltip="http://jzsc.mohurd.gov.cn/data/company"/>
-    <hyperlink ref="B60" r:id="rId59" display="https://www.500d.me/login/" tooltip="https://www.500d.me/login/"/>
-    <hyperlink ref="B61" r:id="rId60" display="http://club.10155.com/login" tooltip="http://club.10155.com/login"/>
-    <hyperlink ref="B62" r:id="rId61" display="https://login.sdo.com/sdo/Login/LoginSDO.php" tooltip="https://login.sdo.com/sdo/Login/LoginSDO.php"/>
-    <hyperlink ref="B63" r:id="rId62" display="http://www.leadbank.com.cn/login/" tooltip="http://www.leadbank.com.cn/login/"/>
-    <hyperlink ref="B64" r:id="rId63" display="https://www.389680.com/#/?"/>
-    <hyperlink ref="B65" r:id="rId64" display="http://yhz566.com/" tooltip="http://yhz566.com/"/>
-    <hyperlink ref="B66" r:id="rId65" display="http://login.wsgjp.com.cn/" tooltip="http://login.wsgjp.com.cn/"/>
-    <hyperlink ref="B67" r:id="rId66" display="https://bqcm0.cavip1.com/" tooltip="https://bqcm0.cavip1.com/"/>
-    <hyperlink ref="B68" r:id="rId67" display="https://www.kugou.com/mvweb/html/mv_95.html" tooltip="https://www.kugou.com/mvweb/html/mv_95.html"/>
-    <hyperlink ref="B69" r:id="rId68" display="https://one.pingan.com.cn/paone/index.html?appId=11045&amp;originApp=true#/login" tooltip="https://one.pingan.com.cn/paone/index.html?appId=11045&amp;originApp=true"/>
-    <hyperlink ref="B70" r:id="rId69" display="http://wwww-caipiao500.com/login" tooltip="http://wwww-caipiao500.com/login"/>
-    <hyperlink ref="B71" r:id="rId70" display="https://mp.weixin.qq.com/cgi-bin/bizlogin?action=startlogin" tooltip="https://mp.weixin.qq.com/cgi-bin/bizlogin?action=startlogin"/>
-    <hyperlink ref="B72" r:id="rId71" display="https://passport.kongzhong.com" tooltip="https://passport.kongzhong.com/"/>
-    <hyperlink ref="B73" r:id="rId72" display="http://www.xinshangmeng.com" tooltip="http://www.xinshangmeng.com/"/>
-    <hyperlink ref="B74" r:id="rId73" display="https://www.tianyancha.com/" tooltip="https://www.tianyancha.com/"/>
-    <hyperlink ref="B75" r:id="rId74" display="https://dc.simuwang.com/" tooltip="https://dc.simuwang.com/"/>
-    <hyperlink ref="B76" r:id="rId75" display="https://mail.sohu.com/fe/#/login"/>
-    <hyperlink ref="B77" r:id="rId76" display="https://www.iqianjin.com/user/login" tooltip="https://www.iqianjin.com/user/login"/>
-    <hyperlink ref="B78" r:id="rId77" display="http://www.sparctool.com/" tooltip="http://www.sparctool.com/"/>
-    <hyperlink ref="B79" r:id="rId78" display="https://www.oocl.com/eng/Pages/default.aspx" tooltip="https://www.oocl.com/eng/Pages/default.aspx"/>
-    <hyperlink ref="B80" r:id="rId79" display="https://tool.lu/ip" tooltip="https://tool.lu/ip"/>
-    <hyperlink ref="B81" r:id="rId80" display="http://zq.win007.com/cn/SubLeague/37.html" tooltip="http://zq.win007.com/cn/SubLeague/37.html"/>
-    <hyperlink ref="B82" r:id="rId81" display="https://www.cassmall.com/passport/login" tooltip="https://www.cassmall.com/passport/login"/>
-    <hyperlink ref="B83" r:id="rId82" display="https://tv.sohu,com" tooltip="about:blank"/>
-    <hyperlink ref="B84" r:id="rId83" display="https://m.wcbchina.com/invite/invite.html" tooltip="https://m.wcbchina.com/invite/invite.html"/>
-    <hyperlink ref="B85" r:id="rId84" display="https://passport.5173.com/?" tooltip="https://passport.5173.com/?"/>
-    <hyperlink ref="B86" r:id="rId85" display="https://www.cls.cn" tooltip="https://www.cls.cn/"/>
-    <hyperlink ref="B87" r:id="rId86" display="http://www.yijianjiexi.com/" tooltip="http://www.yijianjiexi.com/"/>
-    <hyperlink ref="B88" r:id="rId87" display="https://www.doyo.cn/passport/login" tooltip="https://www.doyo.cn/passport/login"/>
-    <hyperlink ref="B89" r:id="rId88" display="http://www.byf.com/member/login.php" tooltip="http://www.byf.com/member/login.php"/>
-    <hyperlink ref="B90" r:id="rId89" display="https://www.cnpcbidding.com/html/1/index.html" tooltip="https://www.cnpcbidding.com/html/1/index.html"/>
-    <hyperlink ref="B91" r:id="rId90" display="https://bidding.sinopec.com/tpfront/xxgg/004001/" tooltip="https://bidding.sinopec.com/tpfront/xxgg/004001/"/>
-    <hyperlink ref="B92" r:id="rId91" display="http://minilogin.sgty.com/" tooltip="http://minilogin.sgty.com/"/>
-    <hyperlink ref="B93" r:id="rId92" display="https://www.aqistudy.cn/" tooltip="https://www.aqistudy.cn/"/>
-    <hyperlink ref="B94" r:id="rId93" display="https://aq.99.com" tooltip="https://aq.99.com/"/>
-    <hyperlink ref="B95" r:id="rId94" display="https://v.douyin.com/WqMX9d/" tooltip="https://v.douyin.com/WqMX9d/"/>
-    <hyperlink ref="B96" r:id="rId95" display="https://www.lianghuaipo.com/#/listed_stock_list"/>
-    <hyperlink ref="B97" r:id="rId96" display="https://www.mps.gov.cn/n2254098/n4904352/" tooltip="https://www.mps.gov.cn/n2254098/n4904352/"/>
-    <hyperlink ref="B98" r:id="rId97" display="https://www.jdj007.com/" tooltip="https://www.jdj007.com/"/>
-    <hyperlink ref="B99" r:id="rId98" display="https://cd.meituan.com/meishi/c17/pn2/" tooltip="https://cd.meituan.com/meishi/c17/pn2/"/>
-    <hyperlink ref="B100" r:id="rId99" display="https://www.kanzhun.com/firm/interview/1nR-298~.html" tooltip="https://www.kanzhun.com/firm/interview/1nR-298~.html"/>
-    <hyperlink ref="B101" r:id="rId100" display="https://www.shanghairanking.cn/institution/tsinghua-university" tooltip="https://www.shanghairanking.cn/institution/tsinghua-university"/>
-    <hyperlink ref="B102" r:id="rId101" display="https://synconhub.coscoshipping.com/" tooltip="https://synconhub.coscoshipping.com/"/>
-    <hyperlink ref="B103" r:id="rId102" display="http://gyzy.guizhoucourt.cn/" tooltip="http://gyzy.guizhoucourt.cn/"/>
-    <hyperlink ref="B104" r:id="rId103" display="https://static.waitwaitpay.com/web/sd_se/index.html#/"/>
-    <hyperlink ref="B105" r:id="rId104" display="https://bj.ke.com/" tooltip="https://bj.ke.com/"/>
-    <hyperlink ref="B106" r:id="rId105" display="https://www.douyu.com" tooltip="https://www.douyu.com/"/>
-    <hyperlink ref="B107" r:id="rId106" display="http://upass.10jqka.com.cn/register" tooltip="http://upass.10jqka.com.cn/register"/>
-    <hyperlink ref="B108" r:id="rId107" display="https://wenshu.court.gov.cn/" tooltip="https://wenshu.court.gov.cn/"/>
-    <hyperlink ref="B109" r:id="rId108" display="https://www.amazon.com" tooltip="https://www.amazon.com/"/>
-    <hyperlink ref="B110" r:id="rId109" display="http://cpquery.sipo.gov.cn/" tooltip="http://cpquery.sipo.gov.cn/"/>
-    <hyperlink ref="B111" r:id="rId110" display="https://www.dianrong.com/account/login" tooltip="https://www.dianrong.com/account/login"/>
-    <hyperlink ref="B112" r:id="rId111" display="https://www.zhipin.com/" tooltip="https://www.zhipin.com/"/>
-    <hyperlink ref="B113" r:id="rId112" display="https://youhui.pinduoduo.com/search/landing?catId=14" tooltip="https://youhui.pinduoduo.com/search/landing?catId=14"/>
-    <hyperlink ref="B114" r:id="rId113" display="https://fhyl77.com" tooltip="https://fhyl77.com/"/>
-    <hyperlink ref="B115" r:id="rId114" display="http://www.cma-cgm.com/ebusiness/schedules?departurePlaceCode=CNSHA&amp;arrivalPlaceCode=DEHAM&amp;isDeparture=True&amp;dateRange=ThreeWeeks&amp;searchDate=3%2F12%2F2021&amp;cultureId=1033&amp;actualPOLDescription=SHANGHAI%20%3B%20CN%20%3B%20CNSHA&amp;actualPODDescription=HAMBURG%20%3B%20DE%20%3B%20DEHAM" tooltip="http://www.cma-cgm.com/ebusiness/schedules?departurePlaceCode=CNSHA&amp;arrivalPlaceCode=DEHAM&amp;isDeparture=True&amp;dateRange=ThreeWeeks&amp;searchDate=3/12/2021&amp;cultureId=1033&amp;actualPOLDescription=SHANGHAI ; CN ; CNSHA&amp;actualPODDescription=HAMBURG ; DE ; DEHAM"/>
-    <hyperlink ref="B116" r:id="rId115" display="https://www.zimchina.com/tools/track-a-shipment" tooltip="https://www.zimchina.com/tools/track-a-shipment"/>
-    <hyperlink ref="B117" r:id="rId116" display="https://www.xiaohongshu.com/web-login/captcha?redirectPath=http%3A%2F%2Fwww.xiaohongshu.com%2Fuser%2Fprofile%2F5599ffe35894466c543d6dcf" tooltip="https://www.xiaohongshu.com/web-login/captcha?redirectPath=http://www.xiaohongshu.com/user/profile/5599ffe35894466c543d6dcf"/>
-    <hyperlink ref="B118" r:id="rId117" display="https://www.shenlu007.com/" tooltip="https://www.shenlu007.com/"/>
-    <hyperlink ref="B119" r:id="rId118" display="http://www.sw-cnc.com/v_detail/42112.html" tooltip="http://www.sw-cnc.com/v_detail/42112.html"/>
+    <hyperlink r:id="rId1" ref="B2" tooltip="https://m.ctyun.cn/wap/main/auth/login?redirect=/my"/>
+    <hyperlink r:id="rId2" ref="B3" tooltip="https://cn.fawmx.com/home/register"/>
+    <hyperlink r:id="rId3" ref="B4" tooltip="https://www.baidu.com/"/>
+    <hyperlink r:id="rId4" ref="B5" tooltip="https://passport.yhd.com/passport/login_input.do"/>
+    <hyperlink r:id="rId5" ref="B6" tooltip="https://clogin.ke.com/login?service=http://m.ke.com/my/checklogin?redirect=https%3A%2F%2Fm.ke.com%2Fmy%2Findex&amp;type=2"/>
+    <hyperlink r:id="rId6" ref="B7" tooltip="https://v.6.cn/channel/index.php?src=z9weij928"/>
+    <hyperlink r:id="rId7" ref="B8" tooltip="https://pay.qq.com/"/>
+    <hyperlink r:id="rId8" ref="B9" tooltip="http://www.lagou.com/"/>
+    <hyperlink r:id="rId9" ref="B10" tooltip="http://u.caixin.com/user/login.html"/>
+    <hyperlink r:id="rId10" ref="B11" tooltip="https://login.189.cn/web/login"/>
+    <hyperlink r:id="rId11" ref="B12" tooltip="https://www.szse.cn/application/userCenter/accountinfo/index.html"/>
+    <hyperlink r:id="rId12" ref="B13" tooltip="https://tianaw.95505.cn/tacpc/"/>
+    <hyperlink r:id="rId13" ref="B14" tooltip="http://www.iqiyi.com/"/>
+    <hyperlink r:id="rId14" ref="B15" tooltip="https://86663u.com/login"/>
+    <hyperlink r:id="rId15" ref="B16" tooltip="http://jx409.com/"/>
+    <hyperlink r:id="rId16" ref="B17" tooltip="https://02348811.com/"/>
+    <hyperlink r:id="rId17" ref="B18" tooltip="https://csj812.com/login"/>
+    <hyperlink r:id="rId18" ref="B19" tooltip="https://mail.qq.com/"/>
+    <hyperlink r:id="rId19" ref="B20" tooltip="http://www.bijiaqi.com/"/>
+    <hyperlink r:id="rId20" ref="B21" tooltip="https://oauth.d.cn/auth/goLogin.html"/>
+    <hyperlink r:id="rId21" ref="B22" tooltip="https://hotel.bestwehotel.com/NewLogin/?go=https://hotel.bestwehotel.com"/>
+    <hyperlink r:id="rId22" ref="B23" tooltip="http://www.to8to.com/"/>
+    <hyperlink r:id="rId23" ref="B24" tooltip="https://beijing.tuitui99.com/denglu.html"/>
+    <hyperlink r:id="rId24" ref="B25" tooltip="http://j.esf.leju.com/ucenter/login?curcity=gz"/>
+    <hyperlink r:id="rId25" ref="B26" tooltip="http://hdweb3.iguyi.com/"/>
+    <hyperlink r:id="rId26" ref="B27" tooltip="http://suo.im/5yGoXJ"/>
+    <hyperlink r:id="rId27" ref="B28" tooltip="https://55249696.com/"/>
+    <hyperlink r:id="rId28" ref="B29" tooltip="http://x-cbt.com/"/>
+    <hyperlink r:id="rId29" ref="B30" tooltip="https://www.2980.com/login?callback=/"/>
+    <hyperlink r:id="rId30" ref="B31" tooltip="http://www.yijianjiexi.com/ajax/analyze.php"/>
+    <hyperlink r:id="rId31" ref="B32" tooltip="https://chushou.tv/"/>
+    <hyperlink r:id="rId32" ref="B33" tooltip="https://www.97799f.com:9900/"/>
+    <hyperlink r:id="rId33" ref="B34" tooltip="https://nid.naver.com/nidlogin.login"/>
+    <hyperlink r:id="rId34" ref="B35" tooltip="https://mail.wo.cn/register"/>
+    <hyperlink r:id="rId35" ref="B36" tooltip="http://www.youshiyun.com.cn/"/>
+    <hyperlink r:id="rId36" ref="B37" tooltip="https://www.oschina.net/home/login"/>
+    <hyperlink r:id="rId37" ref="B38" tooltip="https://passport.kongzhong.com/login"/>
+    <hyperlink r:id="rId38" ref="B39" tooltip="https://www.zhenai.com/n/login"/>
+    <hyperlink r:id="rId39" ref="B40" tooltip="http://www.tiancity.com/homepage/"/>
+    <hyperlink r:id="rId40" ref="B41" tooltip="http://www.lkgame.com/login.html"/>
+    <hyperlink r:id="rId41" ref="B42" tooltip="http://www.ctzrnet.com/user/to_login"/>
+    <hyperlink r:id="rId42" ref="B43" tooltip="https://aq.99.com/V3/NDUser_Login.htm"/>
+    <hyperlink r:id="rId43" ref="B44" tooltip="https://sso.my089.com/sso/login"/>
+    <hyperlink r:id="rId44" ref="B45" tooltip="https://passport.changhong.com/login.do?view=vip&amp;service=http://cn.changhong.com&amp;livemode=1"/>
+    <hyperlink r:id="rId45" ref="B46" tooltip="http://www.xinshangmeng.com/xsm2/?Version=2019060900"/>
+    <hyperlink r:id="rId46" ref="B47" tooltip="https://cas.gench.edu.cn/cas/login"/>
+    <hyperlink r:id="rId47" ref="B48" tooltip="https://www.fcbox.com/pages/user/login.html"/>
+    <hyperlink r:id="rId48" ref="B49" tooltip="https://www.battlenet.com.cn/login/zh/"/>
+    <hyperlink r:id="rId49" ref="B50" tooltip="https://www.mytokencap.com/"/>
+    <hyperlink r:id="rId50" ref="B51" tooltip="http://music.163.com/"/>
+    <hyperlink r:id="rId51" ref="B52" tooltip="http://ggzy.zwfwb.tj.gov.cn/jyxx/index.jhtml"/>
+    <hyperlink r:id="rId52" ref="B53" tooltip="http://8553j89.com/cn/register"/>
+    <hyperlink r:id="rId53" ref="B54" tooltip="https://class.imooc.com/"/>
+    <hyperlink r:id="rId54" ref="B55" tooltip="https://www.yiban.cn/login?go=http://www.yiban.cn/"/>
+    <hyperlink r:id="rId55" ref="B56" tooltip="https://www.cls.cn/telegraph"/>
+    <hyperlink r:id="rId56" ref="B57" tooltip="http://tms.newchinalife.com/ex/app/login/login.jsp"/>
+    <hyperlink r:id="rId57" ref="B58" tooltip="https://aerfaying.com/"/>
+    <hyperlink r:id="rId58" ref="B59" tooltip="http://jzsc.mohurd.gov.cn/data/company"/>
+    <hyperlink r:id="rId59" ref="B60" tooltip="https://www.500d.me/login/"/>
+    <hyperlink r:id="rId60" ref="B61" tooltip="http://club.10155.com/login"/>
+    <hyperlink r:id="rId61" ref="B62" tooltip="https://login.sdo.com/sdo/Login/LoginSDO.php"/>
+    <hyperlink r:id="rId62" ref="B63" tooltip="http://www.leadbank.com.cn/login/"/>
+    <hyperlink r:id="rId63" ref="B64"/>
+    <hyperlink r:id="rId64" ref="B65" tooltip="http://yhz566.com/"/>
+    <hyperlink r:id="rId65" ref="B66" tooltip="http://login.wsgjp.com.cn/"/>
+    <hyperlink r:id="rId66" ref="B67" tooltip="https://bqcm0.cavip1.com/"/>
+    <hyperlink r:id="rId67" ref="B68" tooltip="https://www.kugou.com/mvweb/html/mv_95.html"/>
+    <hyperlink r:id="rId68" ref="B69" tooltip="https://one.pingan.com.cn/paone/index.html?appId=11045&amp;originApp=true"/>
+    <hyperlink r:id="rId69" ref="B70" tooltip="http://wwww-caipiao500.com/login"/>
+    <hyperlink r:id="rId70" ref="B71" tooltip="https://mp.weixin.qq.com/cgi-bin/bizlogin?action=startlogin"/>
+    <hyperlink r:id="rId71" ref="B72" tooltip="https://passport.kongzhong.com/"/>
+    <hyperlink r:id="rId72" ref="B73" tooltip="http://www.xinshangmeng.com/"/>
+    <hyperlink r:id="rId73" ref="B74" tooltip="https://www.tianyancha.com/"/>
+    <hyperlink r:id="rId74" ref="B75" tooltip="https://dc.simuwang.com/"/>
+    <hyperlink r:id="rId75" ref="B76"/>
+    <hyperlink r:id="rId76" ref="B77" tooltip="https://www.iqianjin.com/user/login"/>
+    <hyperlink r:id="rId77" ref="B78" tooltip="http://www.sparctool.com/"/>
+    <hyperlink r:id="rId78" ref="B79" tooltip="https://www.oocl.com/eng/Pages/default.aspx"/>
+    <hyperlink r:id="rId79" ref="B80" tooltip="https://tool.lu/ip"/>
+    <hyperlink r:id="rId80" ref="B81" tooltip="http://zq.win007.com/cn/SubLeague/37.html"/>
+    <hyperlink r:id="rId81" ref="B82" tooltip="https://www.cassmall.com/passport/login"/>
+    <hyperlink r:id="rId82" ref="B83" tooltip="about:blank"/>
+    <hyperlink r:id="rId83" ref="B84" tooltip="https://m.wcbchina.com/invite/invite.html"/>
+    <hyperlink r:id="rId84" ref="B85" tooltip="https://passport.5173.com/?"/>
+    <hyperlink r:id="rId85" ref="B86" tooltip="https://www.cls.cn/"/>
+    <hyperlink r:id="rId86" ref="B87" tooltip="http://www.yijianjiexi.com/"/>
+    <hyperlink r:id="rId87" ref="B88" tooltip="https://www.doyo.cn/passport/login"/>
+    <hyperlink r:id="rId88" ref="B89" tooltip="http://www.byf.com/member/login.php"/>
+    <hyperlink r:id="rId89" ref="B90" tooltip="https://www.cnpcbidding.com/html/1/index.html"/>
+    <hyperlink r:id="rId90" ref="B91" tooltip="https://bidding.sinopec.com/tpfront/xxgg/004001/"/>
+    <hyperlink r:id="rId91" ref="B92" tooltip="http://minilogin.sgty.com/"/>
+    <hyperlink r:id="rId92" ref="B93" tooltip="https://www.aqistudy.cn/"/>
+    <hyperlink r:id="rId93" ref="B94" tooltip="https://aq.99.com/"/>
+    <hyperlink r:id="rId94" ref="B95" tooltip="https://v.douyin.com/WqMX9d/"/>
+    <hyperlink r:id="rId95" ref="B96"/>
+    <hyperlink r:id="rId96" ref="B97" tooltip="https://www.mps.gov.cn/n2254098/n4904352/"/>
+    <hyperlink r:id="rId97" ref="B98" tooltip="https://www.jdj007.com/"/>
+    <hyperlink r:id="rId98" ref="B99" tooltip="https://cd.meituan.com/meishi/c17/pn2/"/>
+    <hyperlink r:id="rId99" ref="B100" tooltip="https://www.kanzhun.com/firm/interview/1nR-298~.html"/>
+    <hyperlink r:id="rId100" ref="B101" tooltip="https://www.shanghairanking.cn/institution/tsinghua-university"/>
+    <hyperlink r:id="rId101" ref="B102" tooltip="https://synconhub.coscoshipping.com/"/>
+    <hyperlink r:id="rId102" ref="B103" tooltip="http://gyzy.guizhoucourt.cn/"/>
+    <hyperlink r:id="rId103" ref="B104"/>
+    <hyperlink r:id="rId104" ref="B105" tooltip="https://bj.ke.com/"/>
+    <hyperlink r:id="rId105" ref="B106" tooltip="https://www.douyu.com/"/>
+    <hyperlink r:id="rId106" ref="B107" tooltip="http://upass.10jqka.com.cn/register"/>
+    <hyperlink r:id="rId107" ref="B108" tooltip="https://wenshu.court.gov.cn/"/>
+    <hyperlink r:id="rId108" ref="B109" tooltip="https://www.amazon.com/"/>
+    <hyperlink r:id="rId109" ref="B110" tooltip="http://cpquery.sipo.gov.cn/"/>
+    <hyperlink r:id="rId110" ref="B111" tooltip="https://www.dianrong.com/account/login"/>
+    <hyperlink r:id="rId111" ref="B112" tooltip="https://www.zhipin.com/"/>
+    <hyperlink r:id="rId112" ref="B113" tooltip="https://youhui.pinduoduo.com/search/landing?catId=14"/>
+    <hyperlink r:id="rId113" ref="B114" tooltip="https://fhyl77.com/"/>
+    <hyperlink r:id="rId114" ref="B115" tooltip="http://www.cma-cgm.com/ebusiness/schedules?departurePlaceCode=CNSHA&amp;arrivalPlaceCode=DEHAM&amp;isDeparture=True&amp;dateRange=ThreeWeeks&amp;searchDate=3/12/2021&amp;cultureId=1033&amp;actualPOLDescription=SHANGHAI ; CN ; CNSHA&amp;actualPODDescription=HAMBURG ; DE ; DEHAM"/>
+    <hyperlink r:id="rId115" ref="B116" tooltip="https://www.zimchina.com/tools/track-a-shipment"/>
+    <hyperlink r:id="rId116" ref="B117" tooltip="https://www.xiaohongshu.com/web-login/captcha?redirectPath=http://www.xiaohongshu.com/user/profile/5599ffe35894466c543d6dcf"/>
+    <hyperlink r:id="rId117" ref="B118" tooltip="https://www.shenlu007.com/"/>
+    <hyperlink r:id="rId118" ref="B119" tooltip="http://www.sw-cnc.com/v_detail/42112.html"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/案例站.xlsx
+++ b/案例站.xlsx
@@ -11,11 +11,14 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>题目序号</t>
   </si>
@@ -396,6 +399,9 @@
   </si>
   <si>
     <t>promise异步定位加密位置</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>https://www.389680.com/#/?</t>
@@ -2167,7 +2173,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="C49" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="100" workbookViewId="0">
       <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3154,7 +3160,9 @@
       <c r="E59" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="60" ht="17.25">
       <c r="A60" s="4">
@@ -3172,7 +3180,9 @@
       <c r="E60" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="61" ht="17.25">
       <c r="A61" s="4">
@@ -3208,7 +3218,9 @@
       <c r="E62" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="63" ht="17.25">
       <c r="A63" s="4">
@@ -3226,17 +3238,19 @@
       <c r="E63" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F63" s="6"/>
+      <c r="F63" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="64" ht="17.25">
       <c r="A64" s="4">
         <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>106</v>
@@ -3244,17 +3258,19 @@
       <c r="E64" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F64" s="6"/>
+      <c r="F64" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="65" ht="17.25">
       <c r="A65" s="4">
         <v>71</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>106</v>
@@ -3262,14 +3278,16 @@
       <c r="E65" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="6"/>
+      <c r="F65" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="66" ht="17.25">
       <c r="A66" s="4">
         <v>72</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>109</v>
@@ -3278,25 +3296,27 @@
         <v>106</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="67" ht="17.25">
       <c r="A67" s="4">
         <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F67" s="6"/>
     </row>
@@ -3305,16 +3325,16 @@
         <v>74</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F68" s="6"/>
     </row>
@@ -3323,7 +3343,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>21</v>
@@ -3332,7 +3352,7 @@
         <v>106</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F69" s="6"/>
     </row>
@@ -3341,7 +3361,7 @@
         <v>76</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>109</v>
@@ -3350,7 +3370,7 @@
         <v>106</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F70" s="6"/>
     </row>
@@ -3359,7 +3379,7 @@
         <v>77</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>7</v>
@@ -3368,7 +3388,7 @@
         <v>106</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F71" s="6"/>
     </row>
@@ -3377,7 +3397,7 @@
         <v>78</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>7</v>
@@ -3386,7 +3406,7 @@
         <v>106</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F72" s="6"/>
     </row>
@@ -3395,7 +3415,7 @@
         <v>79</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>21</v>
@@ -3404,7 +3424,7 @@
         <v>106</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F73" s="6"/>
     </row>
@@ -3413,7 +3433,7 @@
         <v>80</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>21</v>
@@ -3422,7 +3442,7 @@
         <v>106</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F74" s="6"/>
     </row>
@@ -3431,10 +3451,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>106</v>
@@ -3447,16 +3467,16 @@
         <v>82</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F76" s="6"/>
     </row>
@@ -3465,13 +3485,13 @@
         <v>83</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -3481,16 +3501,16 @@
         <v>84</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F78" s="6"/>
     </row>
@@ -3499,16 +3519,16 @@
         <v>85</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F79" s="6"/>
     </row>
@@ -3517,16 +3537,16 @@
         <v>86</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F80" s="6"/>
     </row>
@@ -3535,13 +3555,13 @@
         <v>87</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -3551,16 +3571,16 @@
         <v>89</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F82" s="6"/>
     </row>
@@ -3569,16 +3589,16 @@
         <v>90</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F83" s="6"/>
     </row>
@@ -3587,16 +3607,16 @@
         <v>91</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F84" s="6"/>
     </row>
@@ -3605,16 +3625,16 @@
         <v>92</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F85" s="6"/>
     </row>
@@ -3623,16 +3643,16 @@
         <v>93</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F86" s="6"/>
     </row>
@@ -3641,16 +3661,16 @@
         <v>94</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F87" s="6"/>
     </row>
@@ -3659,16 +3679,16 @@
         <v>95</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F88" s="6"/>
     </row>
@@ -3677,13 +3697,13 @@
         <v>96</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>120</v>
@@ -3695,16 +3715,16 @@
         <v>97</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F90" s="6"/>
     </row>
@@ -3713,13 +3733,13 @@
         <v>98</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -3729,16 +3749,16 @@
         <v>99</v>
       </c>
       <c r="B92" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="E92" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F92" s="6"/>
     </row>
@@ -3747,16 +3767,16 @@
         <v>100</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F93" s="6"/>
     </row>
@@ -3765,16 +3785,16 @@
         <v>101</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F94" s="6"/>
     </row>
@@ -3783,16 +3803,16 @@
         <v>102</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F95" s="6"/>
     </row>
@@ -3801,16 +3821,16 @@
         <v>103</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F96" s="6"/>
     </row>
@@ -3819,16 +3839,16 @@
         <v>104</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F97" s="6"/>
     </row>
@@ -3837,16 +3857,16 @@
         <v>105</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F98" s="6"/>
     </row>
@@ -3855,13 +3875,13 @@
         <v>106</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -3871,16 +3891,16 @@
         <v>107</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F100" s="6"/>
     </row>
@@ -3889,16 +3909,16 @@
         <v>108</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F101" s="6"/>
     </row>
@@ -3907,16 +3927,16 @@
         <v>109</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F102" s="6"/>
     </row>
@@ -3925,16 +3945,16 @@
         <v>110</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F103" s="10"/>
     </row>
@@ -3943,16 +3963,16 @@
         <v>111</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F104" s="6"/>
     </row>
@@ -3961,16 +3981,16 @@
         <v>112</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F105" s="6"/>
     </row>
@@ -3979,16 +3999,16 @@
         <v>113</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F106" s="6"/>
     </row>
@@ -3997,13 +4017,13 @@
         <v>114</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -4013,16 +4033,16 @@
         <v>115</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F108" s="6"/>
     </row>
@@ -4031,16 +4051,16 @@
         <v>116</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F109" s="10"/>
     </row>
@@ -4049,16 +4069,16 @@
         <v>117</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F110" s="10"/>
     </row>
@@ -4067,16 +4087,16 @@
         <v>118</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F111" s="10"/>
     </row>
@@ -4085,16 +4105,16 @@
         <v>119</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F112" s="6"/>
     </row>
@@ -4103,13 +4123,13 @@
         <v>120</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -4119,16 +4139,16 @@
         <v>121</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F114" s="10"/>
     </row>
@@ -4137,16 +4157,16 @@
         <v>122</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F115" s="10"/>
     </row>
@@ -4155,19 +4175,19 @@
         <v>123</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" ht="17.25">
@@ -4175,16 +4195,16 @@
         <v>124</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F117" s="16"/>
     </row>
@@ -4193,7 +4213,7 @@
         <v>125</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>57</v>
@@ -4207,14 +4227,14 @@
         <v>126</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F119" s="10"/>
     </row>

--- a/案例站.xlsx
+++ b/案例站.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>题目序号</t>
   </si>
@@ -383,6 +383,9 @@
     <t>md5</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>https://login.sdo.com/sdo/Login/LoginSDO.php</t>
   </si>
   <si>
@@ -401,9 +404,6 @@
     <t>promise异步定位加密位置</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>https://www.389680.com/#/?</t>
   </si>
   <si>
@@ -500,6 +500,9 @@
     <t>input骚操作</t>
   </si>
   <si>
+    <t>没搞懂要干嘛</t>
+  </si>
+  <si>
     <t>https://www.oocl.com/eng/Pages/default.aspx</t>
   </si>
   <si>
@@ -509,6 +512,9 @@
     <t>经典aes，全局搜索定位</t>
   </si>
   <si>
+    <t>复杂</t>
+  </si>
+  <si>
     <t>https://tool.lu/ip</t>
   </si>
   <si>
@@ -518,6 +524,9 @@
     <t>相当于session保持</t>
   </si>
   <si>
+    <t>无加密</t>
+  </si>
+  <si>
     <t>http://zq.win007.com/cn/SubLeague/37.html</t>
   </si>
   <si>
@@ -549,6 +558,9 @@
   </si>
   <si>
     <t>md5(token+password+time)</t>
+  </si>
+  <si>
+    <t>网站没了</t>
   </si>
   <si>
     <t>https://passport.5173.com/?</t>
@@ -2173,7 +2185,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C62" zoomScale="100" workbookViewId="0">
       <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3200,23 +3212,25 @@
       <c r="E61" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="62" ht="17.25">
       <c r="A62" s="4">
         <v>68</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>110</v>
@@ -3227,19 +3241,19 @@
         <v>69</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" ht="17.25">
@@ -3259,7 +3273,7 @@
         <v>120</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" ht="17.25">
@@ -3318,7 +3332,9 @@
       <c r="E67" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F67" s="6"/>
+      <c r="F67" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="68" ht="17.25">
       <c r="A68" s="4">
@@ -3336,7 +3352,9 @@
       <c r="E68" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F68" s="6"/>
+      <c r="F68" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="69" ht="17.25">
       <c r="A69" s="4">
@@ -3354,7 +3372,9 @@
       <c r="E69" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="70" ht="17.25">
       <c r="A70" s="4">
@@ -3372,7 +3392,9 @@
       <c r="E70" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="71" ht="17.25">
       <c r="A71" s="4">
@@ -3390,7 +3412,9 @@
       <c r="E71" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="72" ht="17.25">
       <c r="A72" s="4">
@@ -3408,7 +3432,9 @@
       <c r="E72" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="73" ht="17.25">
       <c r="A73" s="4">
@@ -3426,7 +3452,9 @@
       <c r="E73" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="74" ht="17.25">
       <c r="A74" s="4">
@@ -3444,7 +3472,9 @@
       <c r="E74" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="75" ht="17.25">
       <c r="A75" s="4">
@@ -3460,7 +3490,9 @@
         <v>106</v>
       </c>
       <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="F75" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="76" ht="17.25">
       <c r="A76" s="4">
@@ -3478,7 +3510,9 @@
       <c r="E76" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F76" s="6"/>
+      <c r="F76" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="77" ht="17.25">
       <c r="A77" s="4">
@@ -3494,7 +3528,9 @@
         <v>154</v>
       </c>
       <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="78" ht="17.25">
       <c r="A78" s="4">
@@ -3512,129 +3548,143 @@
       <c r="E78" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F78" s="6"/>
+      <c r="F78" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="79" ht="17.25">
       <c r="A79" s="4">
         <v>85</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F79" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="80" ht="17.25">
       <c r="A80" s="4">
         <v>86</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F80" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="81" ht="17.25">
       <c r="A81" s="4">
         <v>87</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="82" ht="17.25">
       <c r="A82" s="4">
         <v>89</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F82" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="83" ht="17.25">
       <c r="A83" s="4">
         <v>90</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F83" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="84" ht="17.25">
       <c r="A84" s="4">
         <v>91</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F84" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="85" ht="17.25">
       <c r="A85" s="4">
         <v>92</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F85" s="6"/>
     </row>
@@ -3643,16 +3693,16 @@
         <v>93</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F86" s="6"/>
     </row>
@@ -3661,16 +3711,16 @@
         <v>94</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F87" s="6"/>
     </row>
@@ -3679,16 +3729,16 @@
         <v>95</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F88" s="6"/>
     </row>
@@ -3697,13 +3747,13 @@
         <v>96</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>120</v>
@@ -3715,16 +3765,16 @@
         <v>97</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C90" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="E90" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F90" s="6"/>
     </row>
@@ -3733,13 +3783,13 @@
         <v>98</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -3749,16 +3799,16 @@
         <v>99</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F92" s="6"/>
     </row>
@@ -3767,16 +3817,16 @@
         <v>100</v>
       </c>
       <c r="B93" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="E93" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F93" s="6"/>
     </row>
@@ -3785,16 +3835,16 @@
         <v>101</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F94" s="6"/>
     </row>
@@ -3803,16 +3853,16 @@
         <v>102</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F95" s="6"/>
     </row>
@@ -3821,16 +3871,16 @@
         <v>103</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F96" s="6"/>
     </row>
@@ -3839,16 +3889,16 @@
         <v>104</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F97" s="6"/>
     </row>
@@ -3857,16 +3907,16 @@
         <v>105</v>
       </c>
       <c r="B98" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="E98" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F98" s="6"/>
     </row>
@@ -3875,13 +3925,13 @@
         <v>106</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -3891,16 +3941,16 @@
         <v>107</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F100" s="6"/>
     </row>
@@ -3909,16 +3959,16 @@
         <v>108</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F101" s="6"/>
     </row>
@@ -3927,16 +3977,16 @@
         <v>109</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F102" s="6"/>
     </row>
@@ -3945,16 +3995,16 @@
         <v>110</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F103" s="10"/>
     </row>
@@ -3963,16 +4013,16 @@
         <v>111</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F104" s="6"/>
     </row>
@@ -3981,16 +4031,16 @@
         <v>112</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F105" s="6"/>
     </row>
@@ -3999,16 +4049,16 @@
         <v>113</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F106" s="6"/>
     </row>
@@ -4017,13 +4067,13 @@
         <v>114</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -4033,16 +4083,16 @@
         <v>115</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F108" s="6"/>
     </row>
@@ -4051,16 +4101,16 @@
         <v>116</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C109" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="E109" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F109" s="10"/>
     </row>
@@ -4069,16 +4119,16 @@
         <v>117</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F110" s="10"/>
     </row>
@@ -4087,16 +4137,16 @@
         <v>118</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F111" s="10"/>
     </row>
@@ -4105,16 +4155,16 @@
         <v>119</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F112" s="6"/>
     </row>
@@ -4123,13 +4173,13 @@
         <v>120</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -4139,16 +4189,16 @@
         <v>121</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F114" s="10"/>
     </row>
@@ -4157,16 +4207,16 @@
         <v>122</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F115" s="10"/>
     </row>
@@ -4175,19 +4225,19 @@
         <v>123</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" ht="17.25">
@@ -4195,16 +4245,16 @@
         <v>124</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F117" s="16"/>
     </row>
@@ -4213,7 +4263,7 @@
         <v>125</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>57</v>
@@ -4227,14 +4277,14 @@
         <v>126</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F119" s="10"/>
     </row>

--- a/案例站.xlsx
+++ b/案例站.xlsx
@@ -2185,7 +2185,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="C62" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C73" zoomScale="100" workbookViewId="0">
       <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3686,7 +3686,9 @@
       <c r="E85" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F85" s="6"/>
+      <c r="F85" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="86" ht="17.25">
       <c r="A86" s="4">
@@ -3704,7 +3706,9 @@
       <c r="E86" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F86" s="6"/>
+      <c r="F86" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="87" ht="17.25">
       <c r="A87" s="4">
@@ -3722,7 +3726,9 @@
       <c r="E87" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F87" s="6"/>
+      <c r="F87" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="88" ht="17.25">
       <c r="A88" s="4">

--- a/案例站.xlsx
+++ b/案例站.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>题目序号</t>
   </si>
@@ -53,6 +53,9 @@
     <t>https://cn.fawmx.com/home/register</t>
   </si>
   <si>
+    <t>没找到加密</t>
+  </si>
+  <si>
     <t>https://www.baidu.com/</t>
   </si>
   <si>
@@ -299,6 +302,9 @@
     <t>rsa/aes硬扣就行了</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>http://ggzy.zwfwb.tj.gov.cn/jyxx/index.jhtml</t>
   </si>
   <si>
@@ -311,6 +317,9 @@
     <t>a标签事件断点技巧</t>
   </si>
   <si>
+    <t>没搞懂干嘛</t>
+  </si>
+  <si>
     <t>http://8553j89.com/cn/register</t>
   </si>
   <si>
@@ -320,6 +329,9 @@
     <t xml:space="preserve">did/password (md5)</t>
   </si>
   <si>
+    <t>进不去</t>
+  </si>
+  <si>
     <t>https://class.imooc.com/</t>
   </si>
   <si>
@@ -350,9 +362,6 @@
     <t>登录密码</t>
   </si>
   <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>https://aerfaying.com/</t>
   </si>
   <si>
@@ -597,6 +606,9 @@
   </si>
   <si>
     <t>http://www.byf.com/member/login.php</t>
+  </si>
+  <si>
+    <t>没加密了</t>
   </si>
   <si>
     <t>https://www.cnpcbidding.com/html/1/index.html</t>
@@ -2185,7 +2197,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="C73" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2250,17 +2262,19 @@
         <v>8</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="17.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -2273,10 +2287,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -2289,10 +2303,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
@@ -2305,7 +2319,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -2321,10 +2335,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -2337,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -2353,10 +2367,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -2369,16 +2383,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -2387,10 +2401,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
@@ -2403,10 +2417,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>8</v>
@@ -2419,10 +2433,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>8</v>
@@ -2435,10 +2449,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>8</v>
@@ -2451,10 +2465,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>8</v>
@@ -2467,10 +2481,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>8</v>
@@ -2483,10 +2497,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>8</v>
@@ -2499,10 +2513,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>8</v>
@@ -2515,10 +2529,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>8</v>
@@ -2531,10 +2545,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>8</v>
@@ -2547,10 +2561,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>8</v>
@@ -2563,10 +2577,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>8</v>
@@ -2579,10 +2593,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>8</v>
@@ -2595,10 +2609,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>8</v>
@@ -2611,10 +2625,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>8</v>
@@ -2627,10 +2641,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>8</v>
@@ -2643,10 +2657,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>8</v>
@@ -2659,7 +2673,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -2668,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" s="6"/>
     </row>
@@ -2677,10 +2691,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>8</v>
@@ -2693,10 +2707,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>8</v>
@@ -2709,10 +2723,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>8</v>
@@ -2725,10 +2739,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>8</v>
@@ -2741,10 +2755,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>8</v>
@@ -2757,10 +2771,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>8</v>
@@ -2773,10 +2787,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>8</v>
@@ -2789,10 +2803,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>8</v>
@@ -2805,10 +2819,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>8</v>
@@ -2821,10 +2835,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>8</v>
@@ -2837,10 +2851,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>8</v>
@@ -2853,7 +2867,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>7</v>
@@ -2869,7 +2883,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>7</v>
@@ -2885,10 +2899,10 @@
         <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>8</v>
@@ -2901,10 +2915,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>8</v>
@@ -2917,10 +2931,10 @@
         <v>50</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>8</v>
@@ -2933,10 +2947,10 @@
         <v>51</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>8</v>
@@ -2949,10 +2963,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>8</v>
@@ -2965,10 +2979,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>8</v>
@@ -2981,10 +2995,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>8</v>
@@ -2997,10 +3011,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>8</v>
@@ -3013,106 +3027,116 @@
         <v>57</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="52" ht="17.25">
       <c r="A52" s="4">
         <v>58</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="53" ht="17.25">
       <c r="A53" s="4">
         <v>59</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="54" ht="17.25">
       <c r="A54" s="4">
         <v>60</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="E54" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="55" ht="17.25">
       <c r="A55" s="4">
         <v>61</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="56" ht="17.25">
       <c r="A56" s="4">
         <v>62</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F56" s="6"/>
     </row>
@@ -3121,19 +3145,19 @@
         <v>63</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="F57" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" ht="17.25">
@@ -3141,19 +3165,19 @@
         <v>64</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" ht="17.25">
@@ -3161,19 +3185,19 @@
         <v>65</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" ht="17.25">
@@ -3181,19 +3205,19 @@
         <v>66</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" ht="17.25">
@@ -3201,19 +3225,19 @@
         <v>67</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" ht="17.25">
@@ -3221,19 +3245,19 @@
         <v>68</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" ht="17.25">
@@ -3241,19 +3265,19 @@
         <v>69</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" ht="17.25">
@@ -3261,19 +3285,19 @@
         <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" ht="17.25">
@@ -3281,19 +3305,19 @@
         <v>71</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" ht="17.25">
@@ -3301,19 +3325,19 @@
         <v>72</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" ht="17.25">
@@ -3321,19 +3345,19 @@
         <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" ht="17.25">
@@ -3341,19 +3365,19 @@
         <v>74</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" ht="17.25">
@@ -3361,19 +3385,19 @@
         <v>75</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" ht="17.25">
@@ -3381,19 +3405,19 @@
         <v>76</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" ht="17.25">
@@ -3401,19 +3425,19 @@
         <v>77</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" ht="17.25">
@@ -3421,19 +3445,19 @@
         <v>78</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" ht="17.25">
@@ -3441,19 +3465,19 @@
         <v>79</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" ht="17.25">
@@ -3461,19 +3485,19 @@
         <v>80</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" ht="17.25">
@@ -3481,17 +3505,17 @@
         <v>81</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" ht="17.25">
@@ -3499,19 +3523,19 @@
         <v>82</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" ht="17.25">
@@ -3519,17 +3543,17 @@
         <v>83</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" ht="17.25">
@@ -3537,19 +3561,19 @@
         <v>84</v>
       </c>
       <c r="B78" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="E78" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" ht="17.25">
@@ -3557,19 +3581,19 @@
         <v>85</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" ht="17.25">
@@ -3577,19 +3601,19 @@
         <v>86</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" ht="17.25">
@@ -3597,17 +3621,17 @@
         <v>87</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" ht="17.25">
@@ -3615,19 +3639,19 @@
         <v>89</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" ht="17.25">
@@ -3635,19 +3659,19 @@
         <v>90</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" ht="17.25">
@@ -3655,19 +3679,19 @@
         <v>91</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" ht="17.25">
@@ -3675,19 +3699,19 @@
         <v>92</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" ht="17.25">
@@ -3695,19 +3719,19 @@
         <v>93</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" ht="17.25">
@@ -3715,19 +3739,19 @@
         <v>94</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" ht="17.25">
@@ -3735,67 +3759,73 @@
         <v>95</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F88" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="89" ht="17.25">
       <c r="A89" s="4">
         <v>96</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F89" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="90" ht="17.25">
       <c r="A90" s="4">
         <v>97</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="E90" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F90" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="91" ht="17.25">
       <c r="A91" s="4">
         <v>98</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -3805,16 +3835,16 @@
         <v>99</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F92" s="6"/>
     </row>
@@ -3823,16 +3853,16 @@
         <v>100</v>
       </c>
       <c r="B93" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="E93" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F93" s="6"/>
     </row>
@@ -3841,16 +3871,16 @@
         <v>101</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F94" s="6"/>
     </row>
@@ -3859,16 +3889,16 @@
         <v>102</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F95" s="6"/>
     </row>
@@ -3877,16 +3907,16 @@
         <v>103</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F96" s="6"/>
     </row>
@@ -3895,16 +3925,16 @@
         <v>104</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F97" s="6"/>
     </row>
@@ -3913,16 +3943,16 @@
         <v>105</v>
       </c>
       <c r="B98" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="E98" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F98" s="6"/>
     </row>
@@ -3931,13 +3961,13 @@
         <v>106</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -3947,16 +3977,16 @@
         <v>107</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F100" s="6"/>
     </row>
@@ -3965,16 +3995,16 @@
         <v>108</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F101" s="6"/>
     </row>
@@ -3983,16 +4013,16 @@
         <v>109</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F102" s="6"/>
     </row>
@@ -4001,16 +4031,16 @@
         <v>110</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F103" s="10"/>
     </row>
@@ -4019,16 +4049,16 @@
         <v>111</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F104" s="6"/>
     </row>
@@ -4037,16 +4067,16 @@
         <v>112</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F105" s="6"/>
     </row>
@@ -4055,16 +4085,16 @@
         <v>113</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F106" s="6"/>
     </row>
@@ -4073,13 +4103,13 @@
         <v>114</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -4089,16 +4119,16 @@
         <v>115</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F108" s="6"/>
     </row>
@@ -4107,16 +4137,16 @@
         <v>116</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C109" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="E109" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F109" s="10"/>
     </row>
@@ -4125,16 +4155,16 @@
         <v>117</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F110" s="10"/>
     </row>
@@ -4143,16 +4173,16 @@
         <v>118</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F111" s="10"/>
     </row>
@@ -4161,16 +4191,16 @@
         <v>119</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F112" s="6"/>
     </row>
@@ -4179,13 +4209,13 @@
         <v>120</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -4195,16 +4225,16 @@
         <v>121</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F114" s="10"/>
     </row>
@@ -4213,16 +4243,16 @@
         <v>122</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F115" s="10"/>
     </row>
@@ -4231,19 +4261,19 @@
         <v>123</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" ht="17.25">
@@ -4251,16 +4281,16 @@
         <v>124</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F117" s="16"/>
     </row>
@@ -4269,10 +4299,10 @@
         <v>125</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -4283,14 +4313,14 @@
         <v>126</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F119" s="10"/>
     </row>
